--- a/data/long_razon/P25A_N-Estudios-long_razon.xlsx
+++ b/data/long_razon/P25A_N-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,293 +787,140 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P25A_N-Estudios-long_razon.xlsx
+++ b/data/long_razon/P25A_N-Estudios-long_razon.xlsx
@@ -659,17 +659,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.5329615338331435</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.02390235825561798</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.6623392188010992</v>
+      </c>
       <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="n">
+        <v>-0.2015418743936891</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.1231973252269604</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1.006697750653641</v>
+      </c>
       <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="n">
+        <v>-0.03046574588444585</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.08642636085627324</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.8787400162259741</v>
+      </c>
       <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
@@ -679,17 +697,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.2017791581060149</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.3683703064763054</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.1802387007858784</v>
+      </c>
       <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="n">
+        <v>-0.4754360466898972</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.191655444241307</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.3182675735118892</v>
+      </c>
       <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="n">
+        <v>-0.3501606220484308</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.1696068376765231</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>0.2940886539866871</v>
+      </c>
       <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -699,17 +735,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>2.040528287929567</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.6486388703082906</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.335762899258066</v>
+      </c>
       <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="n">
+        <v>0.2531155975797937</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.5730280548517231</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>2.092089523365331</v>
+      </c>
       <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="n">
+        <v>0.4025620837782428</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.4386426677006135</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>1.766785254936901</v>
+      </c>
       <c r="N6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
@@ -723,17 +777,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.1662191373359389</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.3932956464256935</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.807471070368099</v>
+      </c>
       <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="n">
+        <v>-0.2223462186873909</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.38044566720783</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.6216868042581664</v>
+      </c>
       <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="n">
+        <v>-0.1160392082081948</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.3855925988247959</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.7015780254135989</v>
+      </c>
       <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
@@ -743,17 +815,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.3353117180910409</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.1234976044517834</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.113834218827822</v>
+      </c>
       <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="n">
+        <v>-0.4512737985700528</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>0.04060778070039194</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>0.1546297626557225</v>
+      </c>
       <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="n">
+        <v>-0.3686994391197118</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.08262004270042168</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>0.2722237939672039</v>
+      </c>
       <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
@@ -763,17 +853,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.9882332748899791</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.197103681580004</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.992707800664607</v>
+      </c>
       <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="n">
+        <v>0.1374890069668218</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.8427981922495448</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>1.280008340805682</v>
+      </c>
       <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="n">
+        <v>0.1620658061699134</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.7693981098917515</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>1.293859755664435</v>
+      </c>
       <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
@@ -787,17 +895,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>-0.2197492028380154</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.6756432877244068</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.3911253956031566</v>
+      </c>
       <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="n">
+        <v>0.0635116956375352</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.1181943719092545</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.7678332123540269</v>
+      </c>
       <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="n">
+        <v>-0.05746409103056567</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.336819308883566</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.6017520806082696</v>
+      </c>
       <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -807,17 +933,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.5864577557053563</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>0.06868369848181391</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.2107372118464162</v>
+      </c>
       <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="n">
+        <v>-0.2819865715189764</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.1952469938224312</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.2234220357140112</v>
+      </c>
       <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="n">
+        <v>-0.3408887745352279</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0.00574363467870918</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>0.172407303781685</v>
+      </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -827,17 +971,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.3941205767714516</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.614225628529063</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.389448405517263</v>
+      </c>
       <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="n">
+        <v>0.670338273294748</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.5222157234943875</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.621844537436264</v>
+      </c>
       <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="n">
+        <v>0.3176309437835972</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.7684829405195923</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>1.161271313823421</v>
+      </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -851,17 +1013,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.09503998085395149</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.352934325725133</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.6357189361054923</v>
+      </c>
       <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="n">
+        <v>-0.1508846767455911</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.2253689324095901</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.7814364733592601</v>
+      </c>
       <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="n">
+        <v>-0.07596862375847888</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.2749232296315386</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.7206822948941884</v>
+      </c>
       <c r="N13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
@@ -871,17 +1051,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.2461063449897916</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.06080626654557636</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>0.1878596999869331</v>
+      </c>
       <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="n">
+        <v>-0.3345045216278821</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.0126113423088196</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.4568788710249394</v>
+      </c>
       <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="n">
+        <v>-0.2368984830093879</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.09873783679221182</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>0.4448727327989446</v>
+      </c>
       <c r="N14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
@@ -891,17 +1089,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.5299463251873167</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.7798303731608206</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.29998484876158</v>
+      </c>
       <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="n">
+        <v>0.07327125498480069</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.4470105414369108</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>1.269239222857881</v>
+      </c>
       <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="n">
+        <v>0.1314124738069535</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.4645009952940509</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>1.058746882810287</v>
+      </c>
       <c r="N15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
